--- a/data/population/enote_nmp.xlsx
+++ b/data/population/enote_nmp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25505</v>
+        <v>25549</v>
       </c>
       <c r="C2" t="n">
         <v>352.6</v>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75130</v>
+        <v>75176</v>
       </c>
       <c r="C3" t="n">
         <v>355.8</v>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19956</v>
+        <v>19943</v>
       </c>
       <c r="C4" t="n">
         <v>213.5</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54857</v>
+        <v>54775</v>
       </c>
       <c r="C5" t="n">
         <v>691.7</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19970</v>
+        <v>20062</v>
       </c>
       <c r="C6" t="n">
         <v>204.5</v>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32896</v>
+        <v>32901</v>
       </c>
       <c r="C7" t="n">
         <v>400.2</v>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36152</v>
+        <v>16705</v>
       </c>
       <c r="C8" t="n">
-        <v>640.9000000000001</v>
+        <v>522.2</v>
       </c>
     </row>
     <row r="9">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16982</v>
+        <v>16952</v>
       </c>
       <c r="C9" t="n">
         <v>482.9</v>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438051</v>
+        <v>437747</v>
       </c>
       <c r="C10" t="n">
         <v>1536.6</v>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18234</v>
+        <v>18175</v>
       </c>
       <c r="C11" t="n">
         <v>942.2</v>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43129</v>
+        <v>43211</v>
       </c>
       <c r="C12" t="n">
         <v>334.8</v>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58352</v>
+        <v>58314</v>
       </c>
       <c r="C13" t="n">
         <v>605.1999999999999</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24346</v>
+        <v>24370</v>
       </c>
       <c r="C14" t="n">
         <v>268.1</v>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64628</v>
+        <v>64415</v>
       </c>
       <c r="C15" t="n">
         <v>230</v>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83345</v>
+        <v>83291</v>
       </c>
       <c r="C16" t="n">
         <v>453.3000000000001</v>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16265</v>
+        <v>16275</v>
       </c>
       <c r="C17" t="n">
         <v>425.1</v>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>68254</v>
+        <v>68178</v>
       </c>
       <c r="C18" t="n">
         <v>629.0999999999999</v>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22385</v>
+        <v>22224</v>
       </c>
       <c r="C19" t="n">
         <v>256.8000000000001</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>70636</v>
+        <v>70571</v>
       </c>
       <c r="C20" t="n">
         <v>1040.799999999999</v>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18214</v>
+        <v>18143</v>
       </c>
       <c r="C21" t="n">
         <v>486.4</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26647</v>
+        <v>26817</v>
       </c>
       <c r="C22" t="n">
         <v>660</v>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20297</v>
+        <v>20320</v>
       </c>
       <c r="C23" t="n">
         <v>239.8</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>66757</v>
+        <v>67069</v>
       </c>
       <c r="C24" t="n">
         <v>777.3</v>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60610</v>
+        <v>60792</v>
       </c>
       <c r="C25" t="n">
         <v>239.6</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>185687</v>
+        <v>186034</v>
       </c>
       <c r="C26" t="n">
         <v>738.4</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>42872</v>
+        <v>42969</v>
       </c>
       <c r="C27" t="n">
         <v>512.2</v>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16306</v>
+        <v>16480</v>
       </c>
       <c r="C28" t="n">
         <v>508.3</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8980</v>
+        <v>8963</v>
       </c>
       <c r="C29" t="n">
         <v>58.6</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13354</v>
+        <v>13399</v>
       </c>
       <c r="C30" t="n">
         <v>480</v>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16717</v>
+        <v>16647</v>
       </c>
       <c r="C31" t="n">
         <v>28.6</v>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34101</v>
+        <v>33926</v>
       </c>
       <c r="C32" t="n">
         <v>374.7000000000001</v>
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36422</v>
+        <v>36275</v>
       </c>
       <c r="C33" t="n">
         <v>289.7</v>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16633</v>
+        <v>16622</v>
       </c>
       <c r="C34" t="n">
         <v>647.7</v>
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28218</v>
+        <v>28286</v>
       </c>
       <c r="C35" t="n">
         <v>344.8</v>
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17342</v>
+        <v>17284</v>
       </c>
       <c r="C36" t="n">
         <v>175.2</v>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13059</v>
+        <v>12976</v>
       </c>
       <c r="C37" t="n">
         <v>197.5</v>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21356</v>
+        <v>21420</v>
       </c>
       <c r="C38" t="n">
         <v>316.3</v>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14694</v>
+        <v>14699</v>
       </c>
       <c r="C39" t="n">
         <v>173.1</v>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13662</v>
+        <v>13760</v>
       </c>
       <c r="C40" t="n">
         <v>337.6</v>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>36604</v>
+        <v>36714</v>
       </c>
       <c r="C41" t="n">
         <v>367.7000000000001</v>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8446</v>
+        <v>8452</v>
       </c>
       <c r="C42" t="n">
         <v>108.9</v>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22167</v>
+        <v>22206</v>
       </c>
       <c r="C43" t="n">
         <v>317.1</v>
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15869</v>
+        <v>15809</v>
       </c>
       <c r="C44" t="n">
         <v>212.4</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>22921</v>
+        <v>22983</v>
       </c>
       <c r="C45" t="n">
         <v>493.2</v>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="C46" t="n">
         <v>52</v>
@@ -1038,91 +1038,104 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ZD Sevnica</t>
+          <t>ZD Radovljica</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>17651</v>
+        <v>19325</v>
       </c>
       <c r="C47" t="n">
-        <v>272.2</v>
+        <v>118.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ZD Slovenske Konjice</t>
+          <t>ZD Sevnica</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>24119</v>
+        <v>17661</v>
       </c>
       <c r="C48" t="n">
-        <v>224.2</v>
+        <v>272.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ZD Velenje</t>
+          <t>ZD Slovenske Konjice</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>45613</v>
+        <v>24063</v>
       </c>
       <c r="C49" t="n">
-        <v>197.3</v>
+        <v>224.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>(prazno)</t>
+          <t>ZD Velenje</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1193</v>
+        <v>45694</v>
       </c>
       <c r="C50" t="n">
-        <v>17.6</v>
+        <v>197.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ZD Trbovlje</t>
+          <t>(prazno)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>15917</v>
+        <v>1201</v>
       </c>
       <c r="C51" t="n">
-        <v>58</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>OZG Gorenjske</t>
+          <t>ZD Trbovlje</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>15031</v>
+        <v>15893</v>
       </c>
       <c r="C52" t="n">
-        <v>155.4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>ZD Tržič</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>15011</v>
+      </c>
+      <c r="C53" t="n">
+        <v>155.4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>ZD Zagorje</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>16328</v>
-      </c>
-      <c r="C53" t="n">
+      <c r="B54" t="n">
+        <v>16307</v>
+      </c>
+      <c r="C54" t="n">
         <v>147.1</v>
       </c>
     </row>
